--- a/Trazabilidad/target/test-classes/data/TestData_Agendamiento.xlsx
+++ b/Trazabilidad/target/test-classes/data/TestData_Agendamiento.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\ÚLTIMO - ° -\Trazabilidad\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automatizacion\Trazabilidad\13 Agosto\Trazabilidad\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36B5232-05D5-4199-A61B-BA220B4E4F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatosAgendamiento" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>Indice</t>
   </si>
@@ -161,12 +162,45 @@
   </si>
   <si>
     <t>71525028</t>
+  </si>
+  <si>
+    <t>i_mt</t>
+  </si>
+  <si>
+    <t>i_nombreCliente</t>
+  </si>
+  <si>
+    <t>MT77900</t>
+  </si>
+  <si>
+    <t>LUIS CHAVEZ ALEJOS</t>
+  </si>
+  <si>
+    <t>71525007</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>915368696</t>
+  </si>
+  <si>
+    <t>i_plan</t>
+  </si>
+  <si>
+    <t>DUO PLANO LOCAL 30 MBPS</t>
+  </si>
+  <si>
+    <t>i_estado</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +239,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -229,11 +269,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,6 +298,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,39 +580,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="50.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="50.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.109375" customWidth="1"/>
-    <col min="18" max="18" width="71.21875" customWidth="1"/>
-    <col min="20" max="20" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.109375" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="71.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.140625" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,8 +679,20 @@
       <c r="V1" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="W1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -643,13 +709,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>28</v>
@@ -668,7 +734,7 @@
       </c>
       <c r="N2" s="5">
         <f ca="1">TODAY() +1</f>
-        <v>43994</v>
+        <v>44076</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>19</v>
@@ -694,8 +760,20 @@
       <c r="V2" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="W2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -737,7 +815,7 @@
       </c>
       <c r="N3" s="5">
         <f t="shared" ref="N3:N6" ca="1" si="0">TODAY() +1</f>
-        <v>43994</v>
+        <v>44076</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>19</v>
@@ -764,7 +842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -806,7 +884,7 @@
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43994</v>
+        <v>44076</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>19</v>
@@ -833,7 +911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -875,7 +953,7 @@
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43994</v>
+        <v>44076</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>19</v>
@@ -902,7 +980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -944,7 +1022,7 @@
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43994</v>
+        <v>44076</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>19</v>
@@ -971,7 +1049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1049,9 +1127,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1266,27 +1347,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5278A6-2A21-4E01-B563-B791F9CE1DB6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAC08B8-73E9-48E1-94F7-4555968A7864}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="488f3ee6-0001-45be-affc-d6376ed368d5"/>
-    <ds:schemaRef ds:uri="2acf951f-4a47-41d0-97c6-406441da21db"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1311,9 +1380,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAC08B8-73E9-48E1-94F7-4555968A7864}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5278A6-2A21-4E01-B563-B791F9CE1DB6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="488f3ee6-0001-45be-affc-d6376ed368d5"/>
+    <ds:schemaRef ds:uri="2acf951f-4a47-41d0-97c6-406441da21db"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>